--- a/portfolio-optimization/data/raw/bonds/em_bond_etf.xlsx
+++ b/portfolio-optimization/data/raw/bonds/em_bond_etf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE940002-C462-4936-9E12-DCFB3983D9B2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80196EA7-BEC7-446F-BB5E-0AF8267940B4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -48,7 +48,25 @@
     <t>Name</t>
   </si>
   <si>
+    <t>FIGI</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>iShares J.P. Morgan USD EM Bond UCITS ETF (GBP hedged)</t>
+  </si>
+  <si>
+    <t>BBG00K9VGTM2</t>
+  </si>
+  <si>
+    <t>EMHG</t>
+  </si>
+  <si>
+    <t>ETF that aims to track the performance of the J.P. Morgan Emerging Bonds iNdex Global Core Index.</t>
   </si>
 </sst>
 </file>
@@ -421,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1277"/>
+  <dimension ref="A1:H1277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +463,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>45813</v>
       </c>
@@ -460,10 +487,19 @@
         <v>135314</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>45812</v>
       </c>
@@ -477,7 +513,7 @@
         <v>140550</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>45811</v>
       </c>
@@ -491,7 +527,7 @@
         <v>139831</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>45810</v>
       </c>
@@ -505,7 +541,7 @@
         <v>147930</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>45807</v>
       </c>
@@ -519,7 +555,7 @@
         <v>149383</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>45806</v>
       </c>
@@ -533,7 +569,7 @@
         <v>146911</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>45805</v>
       </c>
@@ -547,7 +583,7 @@
         <v>147854</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>45804</v>
       </c>
@@ -561,7 +597,7 @@
         <v>149606</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>45800</v>
       </c>
@@ -575,7 +611,7 @@
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>45799</v>
       </c>
@@ -589,7 +625,7 @@
         <v>129392</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>45798</v>
       </c>
@@ -603,7 +639,7 @@
         <v>86435</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>45797</v>
       </c>
@@ -617,7 +653,7 @@
         <v>71079</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>45796</v>
       </c>
@@ -631,7 +667,7 @@
         <v>68255</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>45793</v>
       </c>
@@ -645,7 +681,7 @@
         <v>66228</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>45792</v>
       </c>
